--- a/resultado_join.xlsx
+++ b/resultado_join.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AUTO TECH</t>
+          <t>53.709.569 ARIELLE STEFANE GARCIA SILVA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Simples</t>
+          <t>MEI</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -506,40 +506,36 @@
           <t>Ambos</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carlos </t>
+          <t>Arielle</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6291102324</t>
+          <t>6291757143</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/AUTO TECH OFICINA MECANICA LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 11 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/AUTO TECH OFICINA MECANICA LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 11 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>c.a.jailes@hotmail.com,fernandoautotech@outlook.com</t>
+          <t>center.hrg@gmail.com</t>
         </is>
       </c>
     </row>
@@ -567,27 +563,27 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fernando </t>
+          <t xml:space="preserve">Carlos </t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6291205602</t>
+          <t>6291102324</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/AUTO TECH OFICINA MECANICA LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 11 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/AUTO TECH OFICINA MECANICA LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 11 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -599,7 +595,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CFC LEO</t>
+          <t>AUTO TECH</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -609,60 +605,60 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Serviço</t>
+          <t>Ambos</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Ambos</t>
+          <t>Colaborador</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Luyne</t>
+          <t xml:space="preserve">Fernando </t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>6292636580</t>
+          <t>6291205602</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/CENTRO DE FORMACAO DE CONDUTORES LM UNIAO LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 32 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/CENTRO DE FORMACAO DE CONDUTORES LM UNIAO LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 32 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>autoescolaleo3@gmail.com</t>
+          <t>c.a.jailes@hotmail.com,fernandoautotech@outlook.com</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CONCEPT SOM</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Simples</t>
+          <t>Regime_Normal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ambos</t>
+          <t>Comércio</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -673,39 +669,39 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brenda </t>
+          <t>Caroline</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>6295251661</t>
+          <t>6295660483</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/CONCEPT SOM LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 7 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>conceptsomanapolis@gmail.com</t>
+          <t>carollinecostasouza@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CONCEPT SOM</t>
+          <t>CFC LEO</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -715,50 +711,50 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Ambos</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Pró-labore</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Diogo</t>
+          <t>Luyne</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>6296687987</t>
+          <t>6292636580</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/CONCEPT SOM LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 7 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>conceptsomanapolis@gmail.com</t>
+          <t>autoescolaleo3@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DELUXOO</t>
+          <t>CONCEPT SOM</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -779,39 +775,39 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caroline </t>
+          <t xml:space="preserve">Brenda </t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>6295660483</t>
+          <t>6295251661</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/DELUXOO AUTO SOM LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 30 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>b9240098@gmail.com,carollinecostasouza@gmail.com</t>
+          <t>conceptsomanapolis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>EFRAIM TECNOLOGIA</t>
+          <t>CONCEPT SOM</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -821,7 +817,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Serviço</t>
+          <t>Ambos</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -832,39 +828,39 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Efraim </t>
+          <t>Diogo</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>6284004129</t>
+          <t>6296687987</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/EFRAIM INOCENCIO DE BARROS 98645250187/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 4 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/EFRAIM INOCENCIO DE BARROS 98645250187/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 4 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>efraimbarros@gmail.com</t>
+          <t>conceptsomanapolis@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FILIPE LABS</t>
+          <t>DELUXOO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -874,95 +870,99 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Serviço</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Ambos</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Pró-labore</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Luis </t>
+          <t xml:space="preserve">Caroline </t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>92981997916</t>
+          <t>6295660483</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/FILIPE LABS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 21 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/FILIPE LABS LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 21 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>luis@filipe.xyz</t>
+          <t>b9240098@gmail.com,carollinecostasouza@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GUSPROGRAMMING</t>
+          <t>EBS</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Simples</t>
+          <t>Regime_Normal</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Serviço</t>
+          <t>Comércio</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Gustavo </t>
+          <t>Rayane</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>4884967692</t>
+          <t>6294855434</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/GUSPROGRAMMING LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 20 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/GUSPROGRAMMING LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 20 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>cajura@gmail.com</t>
+          <t>oresteborges@live.com</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA AUTOMOTIVA</t>
+          <t>EFRAIM TECNOLOGIA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -972,46 +972,50 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ambos</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Pró-labore</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ivair</t>
+          <t xml:space="preserve">Efraim </t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>6281265313</t>
+          <t>6284004129</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/INDEPENDENCIA SOLUCOES AUTOMOTIVAS LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 16 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/INDEPENDENCIA SOLUCOES AUTOMOTIVAS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 16 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>independenciaautomecanica@gmail.com</t>
+          <t>efraimbarros@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INDEPENDENCIA AUTOMOTIVA</t>
+          <t>FILIPE LABS</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1021,46 +1025,46 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ambos</t>
+          <t>Serviço</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tatiane</t>
+          <t xml:space="preserve">Luis </t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>6292683058</t>
+          <t>92981997916</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/INDEPENDENCIA SOLUCOES AUTOMOTIVAS LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 16 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/INDEPENDENCIA SOLUCOES AUTOMOTIVAS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 16 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>independenciaautomecanica@gmail.com</t>
+          <t>luis@filipe.xyz</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>J.A GOOD LOOKS</t>
+          <t>GUSPROGRAMMING</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1070,50 +1074,46 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Comércio</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
-      </c>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Johnny</t>
+          <t xml:space="preserve">Gustavo </t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>6294092008</t>
+          <t>4884967692</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/J.A GOOD LOOKS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 13 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/J.A GOOD LOOKS LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 13 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>johnny.arthur1993@hotmail.com</t>
+          <t>cajura@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>K10 EMPREENDIMENTOS</t>
+          <t>INDEPENDENCIA AUTOMOTIVA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1123,46 +1123,46 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Serviço</t>
+          <t>Ambos</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kleyverson</t>
+          <t>Ivair</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>6291123618</t>
+          <t>6281265313</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/K10 EMPREENDIMENTOS LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 36 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/K10 EMPREENDIMENTOS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 36 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>contato@k10empreendimentos.com.br</t>
+          <t>independenciaautomecanica@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MAN CENTER</t>
+          <t>INDEPENDENCIA AUTOMOTIVA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1175,47 +1175,43 @@
           <t>Ambos</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Ambos</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Arielle</t>
+          <t>Tatiane</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>6291757143</t>
+          <t>6292683058</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/MAN CENTER LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 10 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/MAN CENTER LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 10 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>mancenteer@gmail.com</t>
+          <t>independenciaautomecanica@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MAN CENTER</t>
+          <t>J.A GOOD LOOKS</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1225,50 +1221,50 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ambos</t>
+          <t>Comércio</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Ambos</t>
+          <t>Colaborador</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Marllon </t>
+          <t>Johnny</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>6282789126</t>
+          <t>6294092008</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/MAN CENTER LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 10 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/MAN CENTER LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 10 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>mancenteer@gmail.com</t>
+          <t>johnny.arthur1993@hotmail.com</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>NINA HORDYLAN</t>
+          <t>K10 EMPREENDIMENTOS</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1278,95 +1274,95 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Comércio</t>
+          <t>Serviço</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Nina</t>
+          <t>Kleyverson</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>6292591333</t>
+          <t>6291123618</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/NINA HORDYLAN LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 37 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>anacarolinahordylan@gmail.com</t>
+          <t>contato@k10empreendimentos.com.br</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OFICINA DO BATA</t>
+          <t>LAVAJATO DO MARCINHO</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Simples</t>
+          <t>MEI</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ambos</t>
+          <t>Serviço</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Magnum</t>
+          <t>Marcio</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>6293429577</t>
+          <t>6293165334</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/OFICINA DO BATA LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 28 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/OFICINA DO BATA LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 28 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>oficinadobata@gmail.com</t>
+          <t>marcinho09991q3@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PR RAMOS CONSULTORIA CONTABIL</t>
+          <t>MAN CENTER</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1376,50 +1372,50 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Serviço</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
+          <t>Ambos</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Ambos</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Patrick</t>
+          <t>Arielle</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>6281483040</t>
+          <t>6291757143</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/P R RAMOS CONSULTORIA CONTABIL/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 15 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/P R RAMOS CONSULTORIA CONTABIL/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 15 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>patrickmot3@gmail.com</t>
+          <t>mancenteer@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>RL EMPREENDIMENTOS</t>
+          <t>MAN CENTER</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1432,43 +1428,47 @@
           <t>Ambos</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Ambos</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rafael </t>
+          <t xml:space="preserve">Marllon </t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>6291318770</t>
+          <t>6282789126</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/RL EMPREENDIMENTOS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 23 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/RL EMPREENDIMENTOS LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 23 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>rafaellourenco1604@icloud.com</t>
+          <t>mancenteer@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RR CENTRO AUTOMOTIVO</t>
+          <t>NINA HORDYLAN</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1478,55 +1478,51 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Ambos</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
-      </c>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Francielle </t>
+          <t>Nina</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>6291797997</t>
+          <t>6292591333</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/RR CENTRO AUTOMOTIVO LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 17 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/RR CENTRO AUTOMOTIVO LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 17 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>francielle_pereira123@hotmail.com</t>
+          <t>anacarolinahordylan@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RR CENTRO AUTOMOTIVO</t>
+          <t>OFICINA AUTO GIRO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Simples</t>
+          <t>MEI</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1534,47 +1530,43 @@
           <t>Ambos</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Colaborador</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reges </t>
+          <t>Pai</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>6292306464</t>
+          <t>6291450025</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/RR CENTRO AUTOMOTIVO LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 17 - 062025.pdf, C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/RR CENTRO AUTOMOTIVO LTDA/Declarações/2025/SIMPLES NACIONAL\DAS - API Integra Contador - Empresa 17 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>francielle_pereira123@hotmail.com</t>
+          <t>jorgemot3@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>RR CONSULTORIA</t>
+          <t>OFICINA DO BATA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1584,46 +1576,46 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Serviço</t>
+          <t>Ambos</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Rafael</t>
+          <t>Magnum</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>6292400501</t>
+          <t>6293429577</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/R.R CONSULTORIA E PRESTACAO DE SERVICOS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 29 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>rrpedradefel@outlook.com</t>
+          <t>oficinadobata@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>RR CONSULTORIA</t>
+          <t>PR RAMOS CONSULTORIA CONTABIL</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1637,42 +1629,46 @@
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Rayane</t>
+          <t>Patrick</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>6294855434</t>
+          <t>6281483040</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/R.R CONSULTORIA E PRESTACAO DE SERVICOS LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 29 - 062025.pdf</t>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>simples_nacional</t>
+          <t>Teste</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
+          <t>Mensagem teste</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>rrpedradefel@outlook.com</t>
+          <t>patrickmot3@gmail.com</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>STUDIO VIDA E MOVIMENTO</t>
+          <t>RL EMPREENDIMENTOS</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1682,41 +1678,343 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Serviço</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Pró-labore</t>
-        </is>
-      </c>
+          <t>Ambos</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
+          <t xml:space="preserve">Rafael </t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>6291318770</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Mensagem teste</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>rafaellourenco1604@icloud.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>RR CENTRO AUTOMOTIVO</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Simples</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ambos</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Colaborador</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Francielle </t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>6291797997</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Mensagem teste</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>francielle_pereira123@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>RR CENTRO AUTOMOTIVO</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Simples</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ambos</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Colaborador</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Reges </t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>6292306464</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Mensagem teste</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>francielle_pereira123@hotmail.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>RR CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Simples</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Rafael</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>6292400501</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Mensagem teste</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>rrpedradefel@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>RR CONSULTORIA</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Simples</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Rayane</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>6294855434</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Mensagem teste</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>rrpedradefel@outlook.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>STONE BÍLIS</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Regime_Normal</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Comércio</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Wilton</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>6292836199</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Mensagem teste</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>stonebilis@icloud.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>STUDIO VIDA E MOVIMENTO</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Simples</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Serviço</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Pró-labore</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>Vanessa</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>6291754763</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Simples Nacional/STUDIO VIDA E MOVIMENTO LTDA/Declarações/2025/SIMPLES NACIONAL\Declaração Mensal_Recibo DAS - API Integra Contador - Empresa 18 - 062025.pdf</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>simples_nacional</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Olá pessoa_,\nvenho informar, que o imposto/declaração referente ao faturamento do simples nacional do mês mes_ant_ da empresa emp_ foram direcionados no e-mail, \nqualquer duvida estou a disposição</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>C:/Onedrive/EMPRESAS/TERCEIROS/Diversos/Relatórios a Arquivar/imagem_teste.png</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Teste</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Mensagem teste</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
         <is>
           <t>Estudiovidaemovimento@gmail.com</t>
         </is>
